--- a/exemples/liste.xlsx
+++ b/exemples/liste.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">cryptoAAVEpolygon.xlsx</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">cryptoAerodromeBase.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">cryptoAixbtBase.xlsx</t>
+  </si>
+  <si>
     <t xml:space="preserve">cryptoChainlinkPolygon.xlsx</t>
   </si>
   <si>
@@ -47,6 +50,30 @@
   </si>
   <si>
     <t xml:space="preserve">cryptoWrappedBTCPolygon.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoUniswapPolygon.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoAsterBnb.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoAtomcosmosBnb.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoNexoPolygon.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoVirtualBase.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoPancakeswapBase.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoWrappedEthPolygon.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoWrappedbnbBnb.xlsx</t>
   </si>
 </sst>
 </file>
@@ -253,10 +280,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10:A40"/>
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -310,8 +337,50 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/exemples/liste.xlsx
+++ b/exemples/liste.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">cryptoAAVEpolygon.xlsx</t>
   </si>
@@ -28,9 +28,6 @@
     <t xml:space="preserve">cryptoAerodromeBase.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">cryptoAixbtBase.xlsx</t>
-  </si>
-  <si>
     <t xml:space="preserve">cryptoChainlinkPolygon.xlsx</t>
   </si>
   <si>
@@ -50,30 +47,6 @@
   </si>
   <si>
     <t xml:space="preserve">cryptoWrappedBTCPolygon.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cryptoUniswapPolygon.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cryptoAsterBnb.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cryptoAtomcosmosBnb.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cryptoNexoPolygon.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cryptoVirtualBase.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cryptoPancakeswapBase.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cryptoWrappedEthPolygon.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cryptoWrappedbnbBnb.xlsx</t>
   </si>
 </sst>
 </file>
@@ -280,10 +253,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -337,50 +310,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A17" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/exemples/liste.xlsx
+++ b/exemples/liste.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">cryptoAAVEpolygon.xlsx</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">cryptoAerodromeBase.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">cryptoAixbtBase.xlsx</t>
+  </si>
+  <si>
     <t xml:space="preserve">cryptoChainlinkPolygon.xlsx</t>
   </si>
   <si>
@@ -47,6 +50,36 @@
   </si>
   <si>
     <t xml:space="preserve">cryptoWrappedBTCPolygon.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoUniswapPolygon.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoAtomcosmosBnb.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoNexoPolygon.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoVirtualBase.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoPancakeswapBase.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoWrappedEthPolygon.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoWrappedbnbBnb.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoTelcoinPolygon.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoXrpBnb.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoAsterBnb.xlsx</t>
   </si>
 </sst>
 </file>
@@ -79,12 +112,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4EA6B"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -121,12 +160,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -139,6 +182,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFD4EA6B"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -253,10 +356,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10:A40"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -266,52 +369,104 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/exemples/liste.xlsx
+++ b/exemples/liste.xlsx
@@ -20,66 +20,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">cryptoAAVEpolygon.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">cryptoChainlinkPolygon.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoTelcoinPolygon.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoNexoPolygon.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoMystPolygon.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoPaxgoldPolygon.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoSolanaPolygon.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoWrappedBTCPolygon.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoWrappedEthPolygon.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoUniswapPolygon.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoMorphoBase.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoAixbtBase.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoVirtualBase.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cryptoPancakeswapBase.xlsx</t>
+  </si>
+  <si>
     <t xml:space="preserve">cryptoAerodromeBase.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">cryptoAixbtBase.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cryptoChainlinkPolygon.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cryptoDogeBnb.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cryptoMorphoBase.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cryptoMystPolygon.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cryptoPaxgoldPolygon.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cryptoSolanaPolygon.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cryptoWrappedBTCPolygon.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cryptoUniswapPolygon.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cryptoAtomcosmosBnb.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cryptoNexoPolygon.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cryptoVirtualBase.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cryptoPancakeswapBase.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cryptoWrappedEthPolygon.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cryptoWrappedbnbBnb.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cryptoTelcoinPolygon.xlsx</t>
-  </si>
-  <si>
     <t xml:space="preserve">cryptoXrpBnb.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cryptoAsterBnb.xlsx</t>
   </si>
 </sst>
 </file>
@@ -356,10 +344,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -408,8 +396,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -444,28 +432,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
